--- a/shj-admin-portal-web/src/main/resources/templates/excel/3/applicant-health-data.xlsx
+++ b/shj-admin-portal-web/src/main/resources/templates/excel/3/applicant-health-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\projects\hajj\code\smart-hajj-admin-portal\shj-admin-portal-web\src\main\resources\templates\excel\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tasks\Hajj Initiative\excel template\excel\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Applicant Health Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID Number 
 	رقم الهوية الوطنية / الإقامة</t>
@@ -34,20 +34,31 @@
 	رقم الجواز</t>
   </si>
   <si>
-    <t>DateOfBirth
-	تاريخ الميلاد</t>
-  </si>
-  <si>
-    <t>DateOfBirthHijri
-	تاريخ الميلاد هجري</t>
-  </si>
-  <si>
     <t>InsurancePolicyNumber
 	رقم بوليصة التامين</t>
   </si>
   <si>
     <t>BloodType
 	نوع فصيلة الدم</t>
+  </si>
+  <si>
+    <t>SpecialNeedList
+	قائمة الإحتياجات الخاصة</t>
+  </si>
+  <si>
+    <t>DateOfBirth
+	تاريخ الميلاد
+DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>DateOfBirthHijri
+	تاريخ الميلاد هجري
+YYYYMMDD</t>
+  </si>
+  <si>
+    <t>SpecialNeed	
+الإحتياجات الخاصة
+Yes/No</t>
   </si>
 </sst>
 </file>
@@ -173,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,12 +202,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -392,15 +453,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="B3:G31" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6" headerRowCellStyle="20% - Accent1">
-  <autoFilter ref="B3:G31"/>
-  <tableColumns count="6">
-    <tableColumn id="2" name="ID Number _x000a__x0009_رقم الهوية الوطنية / الإقامة" dataDxfId="5"/>
-    <tableColumn id="3" name="PassportNo_x000a__x0009_رقم الجواز" dataDxfId="4"/>
-    <tableColumn id="4" name="DateOfBirth_x000a__x0009_تاريخ الميلاد" dataDxfId="3"/>
-    <tableColumn id="5" name="DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري" dataDxfId="2"/>
-    <tableColumn id="7" name="BloodType_x000a__x0009_نوع فصيلة الدم" dataDxfId="1"/>
-    <tableColumn id="6" name="InsurancePolicyNumber_x000a__x0009_رقم بوليصة التامين" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="B3:I31" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8" headerRowCellStyle="20% - Accent1">
+  <autoFilter ref="B3:I31"/>
+  <tableColumns count="8">
+    <tableColumn id="2" name="ID Number _x000a__x0009_رقم الهوية الوطنية / الإقامة" dataDxfId="7"/>
+    <tableColumn id="3" name="PassportNo_x000a__x0009_رقم الجواز" dataDxfId="6"/>
+    <tableColumn id="4" name="DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="5"/>
+    <tableColumn id="5" name="DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري_x000a_YYYYMMDD" dataDxfId="4"/>
+    <tableColumn id="7" name="BloodType_x000a__x0009_نوع فصيلة الدم" dataDxfId="3"/>
+    <tableColumn id="6" name="InsurancePolicyNumber_x000a__x0009_رقم بوليصة التامين" dataDxfId="2"/>
+    <tableColumn id="1" name="SpecialNeed_x0009__x000a_الإحتياجات الخاصة_x000a_Yes/No" dataDxfId="1"/>
+    <tableColumn id="8" name="SpecialNeedList_x000a__x0009_قائمة الإحتياجات الخاصة" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -669,262 +732,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G31"/>
+  <dimension ref="B3:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="21.265625" customWidth="1"/>
-    <col min="6" max="6" width="22.53125" customWidth="1"/>
-    <col min="7" max="8" width="21.265625" customWidth="1"/>
+    <col min="2" max="5" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
+    <col min="8" max="9" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" s="3" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
       <c r="G31" s="6"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,23 +1074,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<XMLData TextToDisplay="%EMAILADDRESS%">adhaoui@elm.sa</XMLData>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<XMLData TextToDisplay="%USERNAME%">adhaoui</XMLData>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <XMLData TextToDisplay="%HOSTNAME%">N14946.elm.com.sa</XMLData>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">09:57 11/05/2021</XMLData>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%EMAILADDRESS%">adhaoui@elm.sa</XMLData>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%USERNAME%">adhaoui</XMLData>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,37 +1098,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594BDABB-85EC-496D-90DC-EC77333D8167}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{751C11B0-08C1-4EE8-9007-1CCB88EBD376}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E27E3D3-165F-47EA-86B0-A6D84A589584}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A07F7-3973-4838-B7E7-EB7D8745504A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A4FEA3-53F1-4DDC-9022-BAA5D30164C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594BDABB-85EC-496D-90DC-EC77333D8167}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{751C11B0-08C1-4EE8-9007-1CCB88EBD376}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E27E3D3-165F-47EA-86B0-A6D84A589584}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABCD822-05EB-4641-852D-D9D26FEF34A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3498EE31-825F-4CA2-93FA-B76C0BE4D26D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/shj-admin-portal-web/src/main/resources/templates/excel/3/applicant-health-data.xlsx
+++ b/shj-admin-portal-web/src/main/resources/templates/excel/3/applicant-health-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tasks\Hajj Initiative\excel template\excel\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmelsayed\Documents\shaaer\shj-admin-portal-web\src\main\resources\templates\excel\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID Number 
 	رقم الهوية الوطنية / الإقامة</t>
@@ -59,6 +59,10 @@
     <t>SpecialNeed	
 الإحتياجات الخاصة
 Yes/No</t>
+  </si>
+  <si>
+    <t>PackageCode
+باقة الشركة</t>
   </si>
 </sst>
 </file>
@@ -184,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -206,6 +210,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -453,9 +460,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="B3:I31" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8" headerRowCellStyle="20% - Accent1">
-  <autoFilter ref="B3:I31"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="B3:J31" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8" headerRowCellStyle="20% - Accent1">
+  <autoFilter ref="B3:J31"/>
+  <tableColumns count="9">
     <tableColumn id="2" name="ID Number _x000a__x0009_رقم الهوية الوطنية / الإقامة" dataDxfId="7"/>
     <tableColumn id="3" name="PassportNo_x000a__x0009_رقم الجواز" dataDxfId="6"/>
     <tableColumn id="4" name="DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="5"/>
@@ -464,6 +471,7 @@
     <tableColumn id="6" name="InsurancePolicyNumber_x000a__x0009_رقم بوليصة التامين" dataDxfId="2"/>
     <tableColumn id="1" name="SpecialNeed_x0009__x000a_الإحتياجات الخاصة_x000a_Yes/No" dataDxfId="1"/>
     <tableColumn id="8" name="SpecialNeedList_x000a__x0009_قائمة الإحتياجات الخاصة" dataDxfId="0"/>
+    <tableColumn id="9" name="PackageCode_x000a_باقة الشركة"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I34"/>
+  <dimension ref="B3:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,9 +752,10 @@
     <col min="6" max="6" width="22.54296875" customWidth="1"/>
     <col min="7" max="7" width="21.26953125" customWidth="1"/>
     <col min="8" max="9" width="21.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" s="3" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" s="3" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +780,11 @@
       <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -782,7 +794,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -792,7 +804,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -802,7 +814,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -812,7 +824,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -822,7 +834,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -832,7 +844,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -842,7 +854,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -852,7 +864,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -862,7 +874,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -872,7 +884,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -882,7 +894,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -892,7 +904,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1074,7 +1086,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%USERNAME%">adhaoui</XMLData>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,11 +1094,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%USERNAME%">adhaoui</XMLData>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%HOSTNAME%">N14946.elm.com.sa</XMLData>
+<XMLData TextToDisplay="RightsWATCHMark">4|ELM-ENG-INT|{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1094,11 +1106,11 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="RightsWATCHMark">4|ELM-ENG-INT|{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%HOSTNAME%">N14946.elm.com.sa</XMLData>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594BDABB-85EC-496D-90DC-EC77333D8167}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E27E3D3-165F-47EA-86B0-A6D84A589584}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1110,13 +1122,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E27E3D3-165F-47EA-86B0-A6D84A589584}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594BDABB-85EC-496D-90DC-EC77333D8167}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A07F7-3973-4838-B7E7-EB7D8745504A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3498EE31-825F-4CA2-93FA-B76C0BE4D26D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1128,7 +1140,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3498EE31-825F-4CA2-93FA-B76C0BE4D26D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A07F7-3973-4838-B7E7-EB7D8745504A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>